--- a/data/trans_dic/P62A$otras-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P62A$otras-Edad-trans_dic.xlsx
@@ -719,7 +719,7 @@
       <c r="J5" s="5" t="inlineStr"/>
       <c r="K5" s="5" t="inlineStr"/>
       <c r="L5" s="5" t="n">
-        <v>0.6434873328593291</v>
+        <v>0.6821503032098788</v>
       </c>
       <c r="M5" s="5" t="inlineStr"/>
       <c r="N5" s="5" t="n">
@@ -785,7 +785,7 @@
         <v>0.8517259706939724</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.8039087229290081</v>
+        <v>0.8039087229290083</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.4219109090402282</v>
@@ -811,37 +811,37 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1246855811616576</v>
+        <v>0.1263692299841373</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2810866856723737</v>
+        <v>0.2834182337776651</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1621364581575419</v>
+        <v>0.1612845351047812</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2142738072335459</v>
+        <v>0.2130518148984037</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.5759691609779574</v>
+        <v>0.5641060096139253</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.5622253912876651</v>
+        <v>0.5803922221161801</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.4420577373163273</v>
+        <v>0.4852280311562319</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1967272823812616</v>
+        <v>0.185804592569096</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.4458481346928461</v>
+        <v>0.464096487751661</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.4870214109575754</v>
+        <v>0.4842743237510301</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.4469865727806026</v>
+        <v>0.4608095466085517</v>
       </c>
     </row>
     <row r="9">
@@ -852,22 +852,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7094545513518921</v>
+        <v>0.7814393032293024</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6617004698010163</v>
+        <v>0.6195132664421654</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7401889276982443</v>
+        <v>0.7976308391082224</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8815722155244156</v>
+        <v>0.8799627523336148</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8397576669520905</v>
+        <v>0.8315616778798162</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.9282695782105229</v>
+        <v>0.9552769456537737</v>
       </c>
       <c r="I9" s="5" t="n">
         <v>1</v>
@@ -876,16 +876,16 @@
         <v>1</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.7007952733256331</v>
+        <v>0.6769797883424161</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.76734927572705</v>
+        <v>0.7600837631113437</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.8257687827076987</v>
+        <v>0.8515967771136083</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.8839032404228382</v>
+        <v>0.8957231402045592</v>
       </c>
     </row>
     <row r="10">
@@ -921,7 +921,7 @@
         <v>0.5629105767757131</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.6222413989690382</v>
+        <v>0.6222413989690383</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.1125777672154155</v>
@@ -933,7 +933,7 @@
         <v>0.4886004665290148</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.5788726836536077</v>
+        <v>0.5788726836536074</v>
       </c>
     </row>
     <row r="11">
@@ -947,37 +947,37 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2764396882381853</v>
+        <v>0.2810262586578764</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2403206514430922</v>
+        <v>0.2205892238076111</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2789489823914733</v>
+        <v>0.2917902335245921</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04811055730535064</v>
+        <v>0.04802583982240853</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2712438439399562</v>
+        <v>0.2850932532261563</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3903251482130696</v>
+        <v>0.3562117325461832</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4744853802533446</v>
+        <v>0.4713103565416621</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04522699240584802</v>
+        <v>0.041884967685049</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.3299569319626479</v>
+        <v>0.3282776673231972</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3661397427563738</v>
+        <v>0.353206435824283</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.4428699988715192</v>
+        <v>0.4457028408455295</v>
       </c>
     </row>
     <row r="12">
@@ -988,40 +988,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2271894244902206</v>
+        <v>0.2375230754204825</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5837207387432185</v>
+        <v>0.5936212213587418</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6026801139435792</v>
+        <v>0.6013146530365586</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7493583405942906</v>
+        <v>0.7442031502879248</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3821304844041185</v>
+        <v>0.3633969304635425</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6125173634253273</v>
+        <v>0.6177258274279158</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7383624467825393</v>
+        <v>0.741611531445184</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.7745913132690436</v>
+        <v>0.7709176921362932</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2434834554936432</v>
+        <v>0.2304569220657236</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.5733774778330691</v>
+        <v>0.562686042667181</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.6182754422177472</v>
+        <v>0.6192128918560599</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.7026765941263174</v>
+        <v>0.7052728876707247</v>
       </c>
     </row>
     <row r="13">
@@ -1083,37 +1083,37 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1118030494413928</v>
+        <v>0.1015886654130689</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1389076326137043</v>
+        <v>0.1480656624029529</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2277144265352558</v>
+        <v>0.2314685222513081</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.04808742333787286</v>
+        <v>0.04867026380383389</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1870733165997051</v>
+        <v>0.1921636817959238</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.08535963471075644</v>
+        <v>0.08794273939190431</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3301435559999392</v>
+        <v>0.3266092446971618</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03389713259793802</v>
+        <v>0.03404735501826111</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1674967271207483</v>
+        <v>0.1656218748853386</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1435449115788703</v>
+        <v>0.1443105708590147</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2997075175600174</v>
+        <v>0.3097465293913663</v>
       </c>
     </row>
     <row r="15">
@@ -1124,40 +1124,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1008215517144575</v>
+        <v>0.09539226690258226</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2953055708661302</v>
+        <v>0.2994369056427325</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3322413595542167</v>
+        <v>0.3551391631607133</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4861903871660574</v>
+        <v>0.4859908640979893</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2681395763965616</v>
+        <v>0.2676969167408568</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4424112913036956</v>
+        <v>0.4502828337887936</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.317047555858588</v>
+        <v>0.3264348303896384</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.5606325034134789</v>
+        <v>0.5617133590628524</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1491949711973953</v>
+        <v>0.1494969751696189</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3288357003431404</v>
+        <v>0.3279797088410901</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3027712679149618</v>
+        <v>0.2979133214071905</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.4848031068595279</v>
+        <v>0.4826723237096276</v>
       </c>
     </row>
     <row r="16">
@@ -1219,37 +1219,37 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04807354783855875</v>
+        <v>0.04712215385883698</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.04298409851926852</v>
+        <v>0.04336093049163749</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2445433047446936</v>
+        <v>0.2525260016111338</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01227281011404609</v>
+        <v>0.01224050216020021</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.03361202332813576</v>
+        <v>0.03368431689262165</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.04312853196760578</v>
+        <v>0.04654433730930229</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2358124747599802</v>
+        <v>0.2365476043585964</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.004003880171056589</v>
+        <v>0.00484791220549513</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.05317366218623892</v>
+        <v>0.05434409366693899</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.05352644690544961</v>
+        <v>0.05478469720386433</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2591633123495338</v>
+        <v>0.2577507680978113</v>
       </c>
     </row>
     <row r="18">
@@ -1260,40 +1260,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03024951294161875</v>
+        <v>0.02356865265697055</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.143925933852736</v>
+        <v>0.1459999578896768</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1228875983339734</v>
+        <v>0.1195751610539656</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3845001901837828</v>
+        <v>0.3827779972012438</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1217809343741408</v>
+        <v>0.1053500698222705</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1546162590730396</v>
+        <v>0.1538077092085781</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1755484909664312</v>
+        <v>0.1671960470638362</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3661149347819656</v>
+        <v>0.3671025349722201</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.04153194342733356</v>
+        <v>0.03933342263456317</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1294062187285842</v>
+        <v>0.1262887736897513</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1207939588483809</v>
+        <v>0.1208284628178043</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3554468532869917</v>
+        <v>0.3538567953570643</v>
       </c>
     </row>
     <row r="19">
@@ -1317,7 +1317,7 @@
         <v>0.00321097921687839</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.2955372064270733</v>
+        <v>0.2955372064270734</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.01939387485536499</v>
@@ -1361,31 +1361,31 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2583092797700371</v>
+        <v>0.2540981283233605</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.004788599722045476</v>
+        <v>0.004991337016278284</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.0310878234679363</v>
+        <v>0.03057976202451206</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.0626834861261525</v>
+        <v>0.06374259112768847</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1708745694462287</v>
+        <v>0.1783487033026646</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.003612611285307861</v>
+        <v>0.003638986302386456</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.01469043360347864</v>
+        <v>0.01521581293100904</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.02738654730939418</v>
+        <v>0.0270916093809677</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.2328483793619734</v>
+        <v>0.2302350106017544</v>
       </c>
     </row>
     <row r="21">
@@ -1396,40 +1396,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.01406504597544008</v>
+        <v>0.01766138744485243</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.01803840955312416</v>
+        <v>0.01863671069410479</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.01603558104846929</v>
+        <v>0.01904485267358539</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3356428316328288</v>
+        <v>0.3351612164548469</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.04453792830812259</v>
+        <v>0.04420968176251321</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.09418540704366755</v>
+        <v>0.08918650271217546</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1374448124191778</v>
+        <v>0.1408380831304663</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2506358214281083</v>
+        <v>0.2491925790325338</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.02185067284994852</v>
+        <v>0.02073810302482065</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.04469493585658487</v>
+        <v>0.04273095233906881</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.0618216661672064</v>
+        <v>0.06322056459375178</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2901956038474428</v>
+        <v>0.2887835082304717</v>
       </c>
     </row>
     <row r="22">
@@ -1493,31 +1493,31 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2419601865655484</v>
+        <v>0.2393667972226921</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.004584509764548876</v>
+        <v>0.005329886830251967</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.01811731408925596</v>
+        <v>0.02086054536004965</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.06394770636074472</v>
+        <v>0.0610073502332252</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.07587632815915871</v>
+        <v>0.07537696398865631</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.002481972878620839</v>
+        <v>0.002481503505414951</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.01138981167896199</v>
+        <v>0.01006135942528114</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.03387818381730424</v>
+        <v>0.03539840300400228</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1549424828438283</v>
+        <v>0.152366000253162</v>
       </c>
     </row>
     <row r="24">
@@ -1530,34 +1530,34 @@
       <c r="C24" s="5" t="inlineStr"/>
       <c r="D24" s="5" t="inlineStr"/>
       <c r="E24" s="5" t="n">
-        <v>0.02124975203103276</v>
+        <v>0.01455657635798769</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3309301878262563</v>
+        <v>0.3302871652561629</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.04495274902934926</v>
+        <v>0.04612479606665509</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.06877281505037311</v>
+        <v>0.06909224534500986</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1518517073301845</v>
+        <v>0.1446196466912056</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1221002041794237</v>
+        <v>0.1254366043741647</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.02533990470413639</v>
+        <v>0.02786612570752416</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.03864803986912993</v>
+        <v>0.03998175370493373</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.07759201063052509</v>
+        <v>0.07993724282534383</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.202385574300029</v>
+        <v>0.2053944712684843</v>
       </c>
     </row>
     <row r="25">
@@ -1593,7 +1593,7 @@
         <v>0.1470565483102262</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.2100634886718032</v>
+        <v>0.2100634886718031</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.02561744496754178</v>
@@ -1616,40 +1616,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.00382867849808769</v>
+        <v>0.003605743727695019</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.05135175608165145</v>
+        <v>0.05134418808501572</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.05015537145719674</v>
+        <v>0.05128401881280647</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.2826263671005508</v>
+        <v>0.2784663047855932</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.0323546080070905</v>
+        <v>0.03020704318614225</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1037859800721784</v>
+        <v>0.1079687871258593</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1245413684444014</v>
+        <v>0.1221704333870897</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1893105661739476</v>
+        <v>0.1859153307906549</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.01754262505745434</v>
+        <v>0.01824129120381596</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.08210332864066042</v>
+        <v>0.08055102419779697</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.08793467438462153</v>
+        <v>0.08756012604729652</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.2426364245692431</v>
+        <v>0.24337427363028</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.01766007390331516</v>
+        <v>0.01776120358006245</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.08806155710320718</v>
+        <v>0.08752613757913985</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.08421653487939723</v>
+        <v>0.08438279717292076</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.337140433309432</v>
+        <v>0.3387306457656716</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.06674302125870396</v>
+        <v>0.06624851495019894</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1539071039322844</v>
+        <v>0.1596327032062562</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1768892627159373</v>
+        <v>0.1756601815752476</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.2345141267829972</v>
+        <v>0.2319198740577479</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.03505453998732307</v>
+        <v>0.03535264077504194</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1140403859354958</v>
+        <v>0.1120471750970513</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.1193484425406994</v>
+        <v>0.1171908669449161</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.2780085145102574</v>
+        <v>0.2798699980035659</v>
       </c>
     </row>
     <row r="28">
@@ -1978,7 +1978,7 @@
       <c r="J6" s="6" t="inlineStr"/>
       <c r="K6" s="6" t="inlineStr"/>
       <c r="L6" s="6" t="n">
-        <v>8757</v>
+        <v>9283</v>
       </c>
       <c r="M6" s="6" t="inlineStr"/>
       <c r="N6" s="6" t="n">
@@ -2114,37 +2114,37 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>2088</v>
+        <v>2117</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>4059</v>
+        <v>4093</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1356</v>
+        <v>1349</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>2310</v>
+        <v>2297</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>14016</v>
+        <v>13728</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>7225</v>
+        <v>7458</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>5811</v>
+        <v>6379</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>3149</v>
+        <v>2974</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>18317</v>
+        <v>19067</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>13290</v>
+        <v>13215</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>9614</v>
+        <v>9911</v>
       </c>
     </row>
     <row r="11">
@@ -2155,22 +2155,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>3708</v>
+        <v>4084</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>11083</v>
+        <v>10377</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>10688</v>
+        <v>11518</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>7372</v>
+        <v>7358</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>9053</v>
+        <v>8964</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>22589</v>
+        <v>23247</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>12850</v>
@@ -2179,16 +2179,16 @@
         <v>13146</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>11217</v>
+        <v>10836</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>31526</v>
+        <v>31227</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>22534</v>
+        <v>23239</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>19011</v>
+        <v>19265</v>
       </c>
     </row>
     <row r="12">
@@ -2294,37 +2294,37 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>12916</v>
+        <v>13130</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>7095</v>
+        <v>6513</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>5812</v>
+        <v>6079</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>10759</v>
+        <v>11309</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>11182</v>
+        <v>10204</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>13253</v>
+        <v>13165</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>2006</v>
+        <v>1858</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>28505</v>
+        <v>28360</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>21299</v>
+        <v>20547</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>21597</v>
+        <v>21736</v>
       </c>
     </row>
     <row r="15">
@@ -2335,40 +2335,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>5695</v>
+        <v>5954</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>27273</v>
+        <v>27736</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>17794</v>
+        <v>17754</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>15613</v>
+        <v>15505</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>7370</v>
+        <v>7009</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>24297</v>
+        <v>24503</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>21152</v>
+        <v>21245</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>21636</v>
+        <v>21533</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>10800</v>
+        <v>10222</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>49534</v>
+        <v>48610</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>35966</v>
+        <v>36021</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>34267</v>
+        <v>34394</v>
       </c>
     </row>
     <row r="16">
@@ -2474,37 +2474,37 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>8478</v>
+        <v>7703</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>10948</v>
+        <v>11670</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>13826</v>
+        <v>14054</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1975</v>
+        <v>1998</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>10221</v>
+        <v>10499</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>4041</v>
+        <v>4163</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>14765</v>
+        <v>14607</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>2944</v>
+        <v>2957</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>21852</v>
+        <v>21607</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>18109</v>
+        <v>18206</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>31601</v>
+        <v>32659</v>
       </c>
     </row>
     <row r="19">
@@ -2515,40 +2515,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>4617</v>
+        <v>4368</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>22392</v>
+        <v>22705</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>26186</v>
+        <v>27991</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>29520</v>
+        <v>29507</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>11010</v>
+        <v>10992</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>24171</v>
+        <v>24601</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>15009</v>
+        <v>15453</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>25073</v>
+        <v>25121</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>12958</v>
+        <v>12985</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>42901</v>
+        <v>42789</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>38197</v>
+        <v>37584</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>51117</v>
+        <v>50892</v>
       </c>
     </row>
     <row r="20">
@@ -2654,37 +2654,37 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>8337</v>
+        <v>8172</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>8610</v>
+        <v>8685</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>43903</v>
+        <v>45336</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>3218</v>
+        <v>3225</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>4787</v>
+        <v>5166</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>27682</v>
+        <v>27769</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>996</v>
+        <v>1206</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>14313</v>
+        <v>14628</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>16663</v>
+        <v>17054</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>76951</v>
+        <v>76531</v>
       </c>
     </row>
     <row r="23">
@@ -2695,40 +2695,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>5106</v>
+        <v>3979</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>24960</v>
+        <v>25320</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>24615</v>
+        <v>23951</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>69029</v>
+        <v>68720</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>9734</v>
+        <v>8420</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>14805</v>
+        <v>14728</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>19485</v>
+        <v>18558</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>42979</v>
+        <v>43095</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>10330</v>
+        <v>9784</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>34833</v>
+        <v>33994</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>37603</v>
+        <v>37614</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>105539</v>
+        <v>105067</v>
       </c>
     </row>
     <row r="24">
@@ -2840,31 +2840,31 @@
         <v>0</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>85650</v>
+        <v>84254</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>846</v>
+        <v>882</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>7013</v>
+        <v>6898</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>14671</v>
+        <v>14919</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>42526</v>
+        <v>44387</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1671</v>
+        <v>1683</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>7804</v>
+        <v>8083</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>15263</v>
+        <v>15099</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>135158</v>
+        <v>133641</v>
       </c>
     </row>
     <row r="27">
@@ -2875,40 +2875,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>4018</v>
+        <v>5045</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>5514</v>
+        <v>5697</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>5184</v>
+        <v>6157</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>111293</v>
+        <v>111133</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>7872</v>
+        <v>7814</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>21246</v>
+        <v>20119</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>32169</v>
+        <v>32963</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>62377</v>
+        <v>62018</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>10104</v>
+        <v>9590</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>23744</v>
+        <v>22701</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>34454</v>
+        <v>35234</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>168446</v>
+        <v>167626</v>
       </c>
     </row>
     <row r="28">
@@ -3016,31 +3016,31 @@
         <v>0</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>65735</v>
+        <v>65030</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1134</v>
+        <v>1318</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>5371</v>
+        <v>6184</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>18707</v>
+        <v>17847</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>26452</v>
+        <v>26278</v>
       </c>
       <c r="K30" s="6" t="n">
         <v>1126</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>6210</v>
+        <v>5486</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>18394</v>
+        <v>19219</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>96110</v>
+        <v>94512</v>
       </c>
     </row>
     <row r="31">
@@ -3053,34 +3053,34 @@
       <c r="C31" s="6" t="inlineStr"/>
       <c r="D31" s="6" t="inlineStr"/>
       <c r="E31" s="6" t="n">
-        <v>5321</v>
+        <v>3645</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>89905</v>
+        <v>89731</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>11117</v>
+        <v>11407</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>20387</v>
+        <v>20482</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>44423</v>
+        <v>42307</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>42567</v>
+        <v>43730</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>11496</v>
+        <v>12642</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>21072</v>
+        <v>21799</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>42128</v>
+        <v>43401</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>125539</v>
+        <v>127405</v>
       </c>
     </row>
     <row r="32">
@@ -3183,40 +3183,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>2825</v>
+        <v>2661</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>44733</v>
+        <v>44727</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>45202</v>
+        <v>46219</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>247143</v>
+        <v>243505</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>18639</v>
+        <v>17402</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>77433</v>
+        <v>80554</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>91792</v>
+        <v>90045</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>152177</v>
+        <v>149448</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>23050</v>
+        <v>23968</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>132778</v>
+        <v>130267</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>144061</v>
+        <v>143448</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>407216</v>
+        <v>408455</v>
       </c>
     </row>
     <row r="35">
@@ -3227,40 +3227,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>13031</v>
+        <v>13106</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>76712</v>
+        <v>76245</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>75899</v>
+        <v>76049</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>294812</v>
+        <v>296203</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>38450</v>
+        <v>38165</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>114828</v>
+        <v>119100</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>130375</v>
+        <v>129469</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>188514</v>
+        <v>186428</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>46060</v>
+        <v>46452</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>184426</v>
+        <v>181203</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>195526</v>
+        <v>191991</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>466581</v>
+        <v>469705</v>
       </c>
     </row>
     <row r="36">
